--- a/GOODLY/1.Power Query Tricks n Tips/19.Filter Shortcuts in Excel/FilterData.xlsx
+++ b/GOODLY/1.Power Query Tricks n Tips/19.Filter Shortcuts in Excel/FilterData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\Excel\POWER QUERY\GoodlyPQ\1.Power Query Tricks n Tips\19.Filter Shortcuts in Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\PowerBI\GOODLY\1.Power Query Tricks n Tips\19.Filter Shortcuts in Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3594FA-6810-457C-8726-4CF4EBC4BF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2995F70-A621-4D42-8056-0E41D4097C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" xr2:uid="{EAE34D82-015A-457F-89D2-EB9C79727DB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAE34D82-015A-457F-89D2-EB9C79727DB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -163,12 +163,54 @@
   <si>
     <t>????</t>
   </si>
+  <si>
+    <t>CLEAR FILTER</t>
+  </si>
+  <si>
+    <t>CTRL + SHIFT + L</t>
+  </si>
+  <si>
+    <t>FN + ALT + 5</t>
+  </si>
+  <si>
+    <t>AUTO FILTER</t>
+  </si>
+  <si>
+    <t>FN + ALT + 4</t>
+  </si>
+  <si>
+    <t>&gt;5000</t>
+  </si>
+  <si>
+    <t>FILTER &gt; 5000</t>
+  </si>
+  <si>
+    <t>&lt; 01-03-2007</t>
+  </si>
+  <si>
+    <t>IMPORTANT SHORTCUTS</t>
+  </si>
+  <si>
+    <t>FILTER  VCC</t>
+  </si>
+  <si>
+    <t>FILTER &lt; 01-03-2007</t>
+  </si>
+  <si>
+    <t>FILTER 4 CHAR</t>
+  </si>
+  <si>
+    <t>?a*</t>
+  </si>
+  <si>
+    <t>FILTER 2nd Letter A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,8 +239,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,8 +283,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -246,14 +324,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -262,13 +420,30 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -604,21 +779,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B33DD9-85B5-4513-BB7E-6E5E9996F075}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G571"/>
+  <dimension ref="A1:K571"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="5" customWidth="1"/>
-    <col min="3" max="7" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="5" customWidth="1"/>
+    <col min="3" max="7" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -640,8 +817,13 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -663,8 +845,15 @@
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -686,8 +875,15 @@
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -709,8 +905,15 @@
       <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -732,8 +935,17 @@
       <c r="G5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -755,8 +967,17 @@
       <c r="G6" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -778,8 +999,17 @@
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -801,8 +1031,17 @@
       <c r="G8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,8 +1063,15 @@
       <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -848,7 +1094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -871,7 +1117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,7 +1140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -917,7 +1163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -940,7 +1186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,7 +1209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -986,7 +1232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,7 +1255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,7 +1278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1055,7 +1301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -1078,7 +1324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1101,7 +1347,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -1124,7 +1370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1147,7 +1393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -1170,7 +1416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -1193,7 +1439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -1216,7 +1462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -1239,7 +1485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -1262,7 +1508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -1285,7 +1531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -1308,7 +1554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -1331,7 +1577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -1354,7 +1600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
@@ -1377,7 +1623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -1400,7 +1646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -1423,7 +1669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -1446,7 +1692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -1469,7 +1715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
@@ -1492,7 +1738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -1515,7 +1761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
@@ -1538,7 +1784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
@@ -1561,7 +1807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -1584,7 +1830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
@@ -1607,7 +1853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
@@ -1630,7 +1876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -1653,7 +1899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
@@ -1676,7 +1922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
@@ -1699,7 +1945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>7</v>
       </c>
@@ -1722,7 +1968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>7</v>
       </c>
@@ -1745,7 +1991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>7</v>
       </c>
@@ -1768,7 +2014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
@@ -1791,7 +2037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
@@ -1814,7 +2060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
@@ -1837,7 +2083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
@@ -1860,7 +2106,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
@@ -1883,7 +2129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -1906,7 +2152,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -1929,7 +2175,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -1952,7 +2198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -1975,7 +2221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -1998,7 +2244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -2021,7 +2267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -2044,7 +2290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -2067,7 +2313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -2090,7 +2336,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -2113,7 +2359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -2136,7 +2382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>7</v>
       </c>
@@ -2159,7 +2405,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
@@ -2182,7 +2428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>7</v>
       </c>
@@ -2205,7 +2451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>7</v>
       </c>
@@ -2228,7 +2474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>7</v>
       </c>
@@ -2251,7 +2497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>7</v>
       </c>
@@ -2274,7 +2520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>7</v>
       </c>
@@ -2297,7 +2543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>7</v>
       </c>
@@ -2320,7 +2566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>7</v>
       </c>
@@ -2343,7 +2589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>7</v>
       </c>
@@ -2366,7 +2612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
@@ -2389,7 +2635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>7</v>
       </c>
@@ -2412,7 +2658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>7</v>
       </c>
@@ -2435,7 +2681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
@@ -2458,7 +2704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
@@ -2481,7 +2727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>7</v>
       </c>
@@ -2504,7 +2750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>7</v>
       </c>
@@ -2527,7 +2773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>7</v>
       </c>
@@ -2550,7 +2796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>7</v>
       </c>
@@ -2573,7 +2819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>7</v>
       </c>
@@ -2596,7 +2842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>7</v>
       </c>
@@ -2619,7 +2865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>7</v>
       </c>
@@ -2642,7 +2888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
@@ -2665,7 +2911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>7</v>
       </c>
@@ -2688,7 +2934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>7</v>
       </c>
@@ -2711,7 +2957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>7</v>
       </c>
@@ -2734,7 +2980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>7</v>
       </c>
@@ -2757,7 +3003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>7</v>
       </c>
@@ -2780,7 +3026,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>7</v>
       </c>
@@ -2803,7 +3049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>7</v>
       </c>
@@ -2826,7 +3072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
@@ -2849,7 +3095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>7</v>
       </c>
@@ -2872,7 +3118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>7</v>
       </c>
@@ -2895,7 +3141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>7</v>
       </c>
@@ -2918,7 +3164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>7</v>
       </c>
@@ -2941,7 +3187,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>7</v>
       </c>
@@ -2964,7 +3210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>7</v>
       </c>
@@ -2987,7 +3233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>7</v>
       </c>
@@ -3010,7 +3256,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>7</v>
       </c>
@@ -3033,7 +3279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>7</v>
       </c>
@@ -3056,7 +3302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>7</v>
       </c>
@@ -3079,7 +3325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>7</v>
       </c>
@@ -3102,7 +3348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>7</v>
       </c>
@@ -3125,7 +3371,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>7</v>
       </c>
@@ -3148,7 +3394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>7</v>
       </c>
@@ -3171,7 +3417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>7</v>
       </c>
@@ -3194,7 +3440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>7</v>
       </c>
@@ -3217,7 +3463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>7</v>
       </c>
@@ -3240,7 +3486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>7</v>
       </c>
@@ -3263,7 +3509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>7</v>
       </c>
@@ -3286,7 +3532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>7</v>
       </c>
@@ -3309,7 +3555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>7</v>
       </c>
@@ -3332,7 +3578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>7</v>
       </c>
@@ -3355,7 +3601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>7</v>
       </c>
@@ -3378,7 +3624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>7</v>
       </c>
@@ -3401,7 +3647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>7</v>
       </c>
@@ -3424,7 +3670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>7</v>
       </c>
@@ -3447,7 +3693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>7</v>
       </c>
@@ -3470,7 +3716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>7</v>
       </c>
@@ -3493,7 +3739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>7</v>
       </c>
@@ -3516,7 +3762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>7</v>
       </c>
@@ -3539,7 +3785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>7</v>
       </c>
@@ -3562,7 +3808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>7</v>
       </c>
@@ -3585,7 +3831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>7</v>
       </c>
@@ -3608,7 +3854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>7</v>
       </c>
@@ -3631,7 +3877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>7</v>
       </c>
@@ -3654,7 +3900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>7</v>
       </c>
@@ -3677,7 +3923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>7</v>
       </c>
@@ -3700,7 +3946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>7</v>
       </c>
@@ -3723,7 +3969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>7</v>
       </c>
@@ -3746,7 +3992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>7</v>
       </c>
@@ -3769,7 +4015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>7</v>
       </c>
@@ -3792,7 +4038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>7</v>
       </c>
@@ -3815,7 +4061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>7</v>
       </c>
@@ -3838,7 +4084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>7</v>
       </c>
@@ -3861,7 +4107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>7</v>
       </c>
@@ -3884,7 +4130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>7</v>
       </c>
@@ -3907,7 +4153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>7</v>
       </c>
@@ -3930,7 +4176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>7</v>
       </c>
@@ -3953,7 +4199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>7</v>
       </c>
@@ -3976,7 +4222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>7</v>
       </c>
@@ -3999,7 +4245,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>7</v>
       </c>
@@ -4022,7 +4268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>7</v>
       </c>
@@ -4045,7 +4291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>7</v>
       </c>
@@ -4068,7 +4314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>7</v>
       </c>
@@ -4091,7 +4337,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>7</v>
       </c>
@@ -4114,7 +4360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>7</v>
       </c>
@@ -4137,7 +4383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>36</v>
       </c>
@@ -4160,7 +4406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>36</v>
       </c>
@@ -4183,7 +4429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>36</v>
       </c>
@@ -4206,7 +4452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>36</v>
       </c>
@@ -4229,7 +4475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>36</v>
       </c>
@@ -4252,7 +4498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>36</v>
       </c>
@@ -4275,7 +4521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>36</v>
       </c>
@@ -4298,7 +4544,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>36</v>
       </c>
@@ -4321,7 +4567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>36</v>
       </c>
@@ -4344,7 +4590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>36</v>
       </c>
@@ -4367,7 +4613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>36</v>
       </c>
@@ -4390,7 +4636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>36</v>
       </c>
@@ -4413,7 +4659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>36</v>
       </c>
@@ -4436,7 +4682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>36</v>
       </c>
@@ -4459,7 +4705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>36</v>
       </c>
@@ -4482,7 +4728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>36</v>
       </c>
@@ -4505,7 +4751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>36</v>
       </c>
@@ -4528,7 +4774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>36</v>
       </c>
@@ -4551,7 +4797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>36</v>
       </c>
@@ -4574,7 +4820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>36</v>
       </c>
@@ -4597,7 +4843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>36</v>
       </c>
@@ -4620,7 +4866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>36</v>
       </c>
@@ -4643,7 +4889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>36</v>
       </c>
@@ -4666,7 +4912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>36</v>
       </c>
@@ -4689,7 +4935,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>36</v>
       </c>
@@ -4712,7 +4958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>36</v>
       </c>
@@ -4735,7 +4981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>36</v>
       </c>
@@ -4758,7 +5004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>36</v>
       </c>
@@ -4781,7 +5027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>36</v>
       </c>
@@ -4804,7 +5050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>36</v>
       </c>
@@ -4827,7 +5073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>36</v>
       </c>
@@ -4850,7 +5096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>36</v>
       </c>
@@ -4873,7 +5119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>36</v>
       </c>
@@ -4896,7 +5142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>36</v>
       </c>
@@ -4919,7 +5165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>36</v>
       </c>
@@ -4942,7 +5188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>36</v>
       </c>
@@ -4965,7 +5211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>36</v>
       </c>
@@ -4988,7 +5234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>36</v>
       </c>
@@ -5011,7 +5257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>36</v>
       </c>
@@ -5034,7 +5280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>36</v>
       </c>
@@ -5057,7 +5303,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>36</v>
       </c>
@@ -5080,7 +5326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>36</v>
       </c>
@@ -5103,7 +5349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>36</v>
       </c>
@@ -5126,7 +5372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>36</v>
       </c>
@@ -5149,7 +5395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>36</v>
       </c>
@@ -5172,7 +5418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>36</v>
       </c>
@@ -5195,7 +5441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>36</v>
       </c>
@@ -5218,7 +5464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>36</v>
       </c>
@@ -5241,7 +5487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>36</v>
       </c>
@@ -5264,7 +5510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>36</v>
       </c>
@@ -5287,7 +5533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>36</v>
       </c>
@@ -5310,7 +5556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>36</v>
       </c>
@@ -5333,7 +5579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>36</v>
       </c>
@@ -5356,7 +5602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>36</v>
       </c>
@@ -5379,7 +5625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>36</v>
       </c>
@@ -5402,7 +5648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>36</v>
       </c>
@@ -5425,7 +5671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>36</v>
       </c>
@@ -5448,7 +5694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>36</v>
       </c>
@@ -5471,7 +5717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>36</v>
       </c>
@@ -5494,7 +5740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>36</v>
       </c>
@@ -5517,7 +5763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>36</v>
       </c>
@@ -5540,7 +5786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>36</v>
       </c>
@@ -5563,7 +5809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>36</v>
       </c>
@@ -5586,7 +5832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>36</v>
       </c>
@@ -5609,7 +5855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>36</v>
       </c>
@@ -5632,7 +5878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>36</v>
       </c>
@@ -5655,7 +5901,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>36</v>
       </c>
@@ -5678,7 +5924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>36</v>
       </c>
@@ -5701,7 +5947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>36</v>
       </c>
@@ -5724,7 +5970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>36</v>
       </c>
@@ -5747,7 +5993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>36</v>
       </c>
@@ -5770,7 +6016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>36</v>
       </c>
@@ -5793,7 +6039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>36</v>
       </c>
@@ -5816,7 +6062,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>36</v>
       </c>
@@ -5839,7 +6085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>36</v>
       </c>
@@ -5862,7 +6108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>36</v>
       </c>
@@ -5885,7 +6131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>36</v>
       </c>
@@ -5908,7 +6154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>36</v>
       </c>
@@ -5931,7 +6177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>36</v>
       </c>
@@ -5954,7 +6200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>36</v>
       </c>
@@ -5977,7 +6223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>36</v>
       </c>
@@ -6000,7 +6246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>36</v>
       </c>
@@ -6023,7 +6269,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>36</v>
       </c>
@@ -6046,7 +6292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>36</v>
       </c>
@@ -6069,7 +6315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>36</v>
       </c>
@@ -6092,7 +6338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>36</v>
       </c>
@@ -6115,7 +6361,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>36</v>
       </c>
@@ -6138,7 +6384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>36</v>
       </c>
@@ -6161,7 +6407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>36</v>
       </c>
@@ -6184,7 +6430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>36</v>
       </c>
@@ -6207,7 +6453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>36</v>
       </c>
@@ -6230,7 +6476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>36</v>
       </c>
@@ -6253,7 +6499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>36</v>
       </c>
@@ -6276,7 +6522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>36</v>
       </c>
@@ -6299,7 +6545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>36</v>
       </c>
@@ -6322,7 +6568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>36</v>
       </c>
@@ -6345,7 +6591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>36</v>
       </c>
@@ -6368,7 +6614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>36</v>
       </c>
@@ -6391,7 +6637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>36</v>
       </c>
@@ -6414,7 +6660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>36</v>
       </c>
@@ -6437,7 +6683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>36</v>
       </c>
@@ -6460,7 +6706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>36</v>
       </c>
@@ -6483,7 +6729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>36</v>
       </c>
@@ -6506,7 +6752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>36</v>
       </c>
@@ -6529,7 +6775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>36</v>
       </c>
@@ -6552,7 +6798,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>36</v>
       </c>
@@ -6575,7 +6821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>36</v>
       </c>
@@ -6598,7 +6844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>36</v>
       </c>
@@ -6621,7 +6867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>36</v>
       </c>
@@ -6644,7 +6890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>36</v>
       </c>
@@ -6667,7 +6913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>36</v>
       </c>
@@ -6690,7 +6936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>36</v>
       </c>
@@ -6713,7 +6959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>36</v>
       </c>
@@ -6736,7 +6982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>36</v>
       </c>
@@ -6759,7 +7005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>36</v>
       </c>
@@ -6782,7 +7028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>36</v>
       </c>
@@ -6805,7 +7051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>36</v>
       </c>
@@ -6828,7 +7074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>36</v>
       </c>
@@ -6851,7 +7097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>36</v>
       </c>
@@ -6874,7 +7120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>36</v>
       </c>
@@ -6897,7 +7143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>36</v>
       </c>
@@ -6920,7 +7166,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>36</v>
       </c>
@@ -6943,7 +7189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>36</v>
       </c>
@@ -6966,7 +7212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>36</v>
       </c>
@@ -6989,7 +7235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>36</v>
       </c>
@@ -7012,7 +7258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>36</v>
       </c>
@@ -7035,7 +7281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>36</v>
       </c>
@@ -7058,7 +7304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>36</v>
       </c>
@@ -7081,7 +7327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>36</v>
       </c>
@@ -7104,7 +7350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>36</v>
       </c>
@@ -7127,7 +7373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>36</v>
       </c>
@@ -7150,7 +7396,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>36</v>
       </c>
@@ -7173,7 +7419,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>36</v>
       </c>
@@ -7196,7 +7442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>37</v>
       </c>
@@ -7219,7 +7465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>37</v>
       </c>
@@ -7242,7 +7488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>37</v>
       </c>
@@ -7265,7 +7511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>37</v>
       </c>
@@ -7288,7 +7534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>37</v>
       </c>
@@ -7311,7 +7557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>37</v>
       </c>
@@ -7334,7 +7580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>37</v>
       </c>
@@ -7357,7 +7603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>37</v>
       </c>
@@ -7380,7 +7626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>37</v>
       </c>
@@ -7403,7 +7649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>37</v>
       </c>
@@ -7426,7 +7672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>37</v>
       </c>
@@ -7449,7 +7695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>37</v>
       </c>
@@ -7472,7 +7718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>37</v>
       </c>
@@ -7495,7 +7741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>37</v>
       </c>
@@ -7518,7 +7764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>37</v>
       </c>
@@ -7541,7 +7787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>37</v>
       </c>
@@ -7564,7 +7810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>37</v>
       </c>
@@ -7587,7 +7833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>37</v>
       </c>
@@ -7610,7 +7856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>37</v>
       </c>
@@ -7633,7 +7879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>37</v>
       </c>
@@ -7656,7 +7902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>37</v>
       </c>
@@ -7679,7 +7925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>37</v>
       </c>
@@ -7702,7 +7948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>37</v>
       </c>
@@ -7725,7 +7971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>37</v>
       </c>
@@ -7748,7 +7994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>37</v>
       </c>
@@ -7771,7 +8017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>37</v>
       </c>
@@ -7794,7 +8040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>37</v>
       </c>
@@ -7817,7 +8063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>37</v>
       </c>
@@ -7840,7 +8086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>37</v>
       </c>
@@ -7863,7 +8109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>37</v>
       </c>
@@ -7886,7 +8132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>37</v>
       </c>
@@ -7909,7 +8155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>37</v>
       </c>
@@ -7932,7 +8178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>37</v>
       </c>
@@ -7955,7 +8201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>37</v>
       </c>
@@ -7978,7 +8224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>37</v>
       </c>
@@ -8001,7 +8247,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>37</v>
       </c>
@@ -8024,7 +8270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>37</v>
       </c>
@@ -8047,7 +8293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>37</v>
       </c>
@@ -8070,7 +8316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>37</v>
       </c>
@@ -8093,7 +8339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>37</v>
       </c>
@@ -8116,7 +8362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>37</v>
       </c>
@@ -8139,7 +8385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>37</v>
       </c>
@@ -8162,7 +8408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>37</v>
       </c>
@@ -8185,7 +8431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>37</v>
       </c>
@@ -8208,7 +8454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>37</v>
       </c>
@@ -8231,7 +8477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>37</v>
       </c>
@@ -8254,7 +8500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>37</v>
       </c>
@@ -8277,7 +8523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>37</v>
       </c>
@@ -8300,7 +8546,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>37</v>
       </c>
@@ -8323,7 +8569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>37</v>
       </c>
@@ -8346,7 +8592,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>37</v>
       </c>
@@ -8369,7 +8615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>37</v>
       </c>
@@ -8392,7 +8638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>37</v>
       </c>
@@ -8415,7 +8661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>37</v>
       </c>
@@ -8438,7 +8684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>37</v>
       </c>
@@ -8461,7 +8707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>37</v>
       </c>
@@ -8484,7 +8730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>37</v>
       </c>
@@ -8507,7 +8753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>37</v>
       </c>
@@ -8530,7 +8776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>37</v>
       </c>
@@ -8553,7 +8799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>37</v>
       </c>
@@ -8576,7 +8822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>37</v>
       </c>
@@ -8599,7 +8845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>37</v>
       </c>
@@ -8622,7 +8868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>37</v>
       </c>
@@ -8645,7 +8891,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>37</v>
       </c>
@@ -8668,7 +8914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>37</v>
       </c>
@@ -8691,7 +8937,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>37</v>
       </c>
@@ -8714,7 +8960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>37</v>
       </c>
@@ -8737,7 +8983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>37</v>
       </c>
@@ -8760,7 +9006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>37</v>
       </c>
@@ -8783,7 +9029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>37</v>
       </c>
@@ -8806,7 +9052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>37</v>
       </c>
@@ -8829,7 +9075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>37</v>
       </c>
@@ -8852,7 +9098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>37</v>
       </c>
@@ -8875,7 +9121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>37</v>
       </c>
@@ -8898,7 +9144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>37</v>
       </c>
@@ -8921,7 +9167,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>37</v>
       </c>
@@ -8944,7 +9190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>37</v>
       </c>
@@ -8967,7 +9213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>37</v>
       </c>
@@ -8990,7 +9236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>37</v>
       </c>
@@ -9013,7 +9259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>37</v>
       </c>
@@ -9036,7 +9282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>37</v>
       </c>
@@ -9059,7 +9305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>37</v>
       </c>
@@ -9082,7 +9328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>37</v>
       </c>
@@ -9105,7 +9351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>37</v>
       </c>
@@ -9128,7 +9374,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>37</v>
       </c>
@@ -9151,7 +9397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>37</v>
       </c>
@@ -9174,7 +9420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>37</v>
       </c>
@@ -9197,7 +9443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>37</v>
       </c>
@@ -9220,7 +9466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="375" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>37</v>
       </c>
@@ -9243,7 +9489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>37</v>
       </c>
@@ -9266,7 +9512,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="377" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>37</v>
       </c>
@@ -9289,7 +9535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>37</v>
       </c>
@@ -9312,7 +9558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>37</v>
       </c>
@@ -9335,7 +9581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="380" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>37</v>
       </c>
@@ -9358,7 +9604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="381" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>37</v>
       </c>
@@ -9381,7 +9627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>37</v>
       </c>
@@ -9404,7 +9650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="383" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>37</v>
       </c>
@@ -9427,7 +9673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>37</v>
       </c>
@@ -9450,7 +9696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>37</v>
       </c>
@@ -9473,7 +9719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="386" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>37</v>
       </c>
@@ -9496,7 +9742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>37</v>
       </c>
@@ -9519,7 +9765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>37</v>
       </c>
@@ -9542,7 +9788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>37</v>
       </c>
@@ -9565,7 +9811,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>37</v>
       </c>
@@ -9588,7 +9834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>37</v>
       </c>
@@ -9611,7 +9857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>37</v>
       </c>
@@ -9634,7 +9880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>37</v>
       </c>
@@ -9657,7 +9903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>37</v>
       </c>
@@ -9680,7 +9926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>37</v>
       </c>
@@ -9703,7 +9949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="396" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>37</v>
       </c>
@@ -9726,7 +9972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="397" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>37</v>
       </c>
@@ -9749,7 +9995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="398" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>37</v>
       </c>
@@ -9772,7 +10018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="399" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>37</v>
       </c>
@@ -9795,7 +10041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="400" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>37</v>
       </c>
@@ -9818,7 +10064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>37</v>
       </c>
@@ -9841,7 +10087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="402" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>37</v>
       </c>
@@ -9864,7 +10110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>37</v>
       </c>
@@ -9887,7 +10133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>37</v>
       </c>
@@ -9910,7 +10156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="405" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>37</v>
       </c>
@@ -9933,7 +10179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="406" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>37</v>
       </c>
@@ -9956,7 +10202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>37</v>
       </c>
@@ -9979,7 +10225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>37</v>
       </c>
@@ -10002,7 +10248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="409" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>37</v>
       </c>
@@ -10025,7 +10271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="410" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>37</v>
       </c>
@@ -10048,7 +10294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>37</v>
       </c>
@@ -10071,7 +10317,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>37</v>
       </c>
@@ -10094,7 +10340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="413" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>37</v>
       </c>
@@ -10117,7 +10363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="414" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>37</v>
       </c>
@@ -10140,7 +10386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="415" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>37</v>
       </c>
@@ -10163,7 +10409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="416" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>37</v>
       </c>
@@ -10186,7 +10432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="417" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>37</v>
       </c>
@@ -10209,7 +10455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="418" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>37</v>
       </c>
@@ -10232,7 +10478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="419" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>37</v>
       </c>
@@ -10255,7 +10501,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>37</v>
       </c>
@@ -10278,7 +10524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="421" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>37</v>
       </c>
@@ -10301,7 +10547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>37</v>
       </c>
@@ -10324,7 +10570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>37</v>
       </c>
@@ -10347,7 +10593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="424" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>37</v>
       </c>
@@ -10370,7 +10616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="425" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>37</v>
       </c>
@@ -10393,7 +10639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="426" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>37</v>
       </c>
@@ -10416,7 +10662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="427" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>37</v>
       </c>
@@ -10439,7 +10685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="428" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>37</v>
       </c>
@@ -10462,7 +10708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="429" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>38</v>
       </c>
@@ -10485,7 +10731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="430" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>38</v>
       </c>
@@ -10508,7 +10754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="431" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>38</v>
       </c>
@@ -10531,7 +10777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>38</v>
       </c>
@@ -10554,7 +10800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="433" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>38</v>
       </c>
@@ -10577,7 +10823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="434" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>38</v>
       </c>
@@ -10600,7 +10846,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="435" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>38</v>
       </c>
@@ -10623,7 +10869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="436" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>38</v>
       </c>
@@ -10646,7 +10892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="437" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>38</v>
       </c>
@@ -10669,7 +10915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="438" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>38</v>
       </c>
@@ -10692,7 +10938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="439" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>38</v>
       </c>
@@ -10715,7 +10961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="440" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>38</v>
       </c>
@@ -10738,7 +10984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="441" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>38</v>
       </c>
@@ -10761,7 +11007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="442" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>38</v>
       </c>
@@ -10784,7 +11030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>38</v>
       </c>
@@ -10807,7 +11053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>38</v>
       </c>
@@ -10830,7 +11076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>38</v>
       </c>
@@ -10853,7 +11099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="446" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>38</v>
       </c>
@@ -10876,7 +11122,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="447" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>38</v>
       </c>
@@ -10899,7 +11145,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="448" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>38</v>
       </c>
@@ -10922,7 +11168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="449" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>38</v>
       </c>
@@ -10945,7 +11191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="450" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>38</v>
       </c>
@@ -10968,7 +11214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="451" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>38</v>
       </c>
@@ -10991,7 +11237,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="452" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>38</v>
       </c>
@@ -11014,7 +11260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="453" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>38</v>
       </c>
@@ -11037,7 +11283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="454" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>38</v>
       </c>
@@ -11060,7 +11306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="455" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>38</v>
       </c>
@@ -11083,7 +11329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>38</v>
       </c>
@@ -11106,7 +11352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="457" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>38</v>
       </c>
@@ -11129,7 +11375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="458" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>38</v>
       </c>
@@ -11152,7 +11398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="459" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>38</v>
       </c>
@@ -11175,7 +11421,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="460" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>38</v>
       </c>
@@ -11198,7 +11444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>38</v>
       </c>
@@ -11221,7 +11467,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="462" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>38</v>
       </c>
@@ -11244,7 +11490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="463" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>38</v>
       </c>
@@ -11267,7 +11513,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="464" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>38</v>
       </c>
@@ -11290,7 +11536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>38</v>
       </c>
@@ -11313,7 +11559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>38</v>
       </c>
@@ -11336,7 +11582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="467" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>38</v>
       </c>
@@ -11359,7 +11605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>38</v>
       </c>
@@ -11382,7 +11628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="469" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>38</v>
       </c>
@@ -11405,7 +11651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>38</v>
       </c>
@@ -11428,7 +11674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="471" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>38</v>
       </c>
@@ -11451,7 +11697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>38</v>
       </c>
@@ -11474,7 +11720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="473" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>38</v>
       </c>
@@ -11497,7 +11743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="474" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>38</v>
       </c>
@@ -11520,7 +11766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="475" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>38</v>
       </c>
@@ -11543,7 +11789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="476" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>38</v>
       </c>
@@ -11566,7 +11812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="477" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>38</v>
       </c>
@@ -11589,7 +11835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="478" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>38</v>
       </c>
@@ -11612,7 +11858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="479" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>38</v>
       </c>
@@ -11635,7 +11881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="480" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>38</v>
       </c>
@@ -11658,7 +11904,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="481" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>38</v>
       </c>
@@ -11681,7 +11927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="482" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>38</v>
       </c>
@@ -11704,7 +11950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="483" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>38</v>
       </c>
@@ -11727,7 +11973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="484" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>38</v>
       </c>
@@ -11750,7 +11996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>38</v>
       </c>
@@ -11773,7 +12019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="486" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>38</v>
       </c>
@@ -11796,7 +12042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="487" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>38</v>
       </c>
@@ -11819,7 +12065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="488" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>38</v>
       </c>
@@ -11842,7 +12088,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="489" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>38</v>
       </c>
@@ -11865,7 +12111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="490" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>38</v>
       </c>
@@ -11888,7 +12134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="491" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>38</v>
       </c>
@@ -11911,7 +12157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="492" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>38</v>
       </c>
@@ -11934,7 +12180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>38</v>
       </c>
@@ -11957,7 +12203,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="494" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>38</v>
       </c>
@@ -11980,7 +12226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="495" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>38</v>
       </c>
@@ -12003,7 +12249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="496" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>38</v>
       </c>
@@ -12026,7 +12272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="497" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>38</v>
       </c>
@@ -12049,7 +12295,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="498" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>38</v>
       </c>
@@ -12072,7 +12318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>38</v>
       </c>
@@ -12095,7 +12341,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="500" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>38</v>
       </c>
@@ -12118,7 +12364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="501" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>38</v>
       </c>
@@ -12141,7 +12387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="502" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>38</v>
       </c>
@@ -12164,7 +12410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="503" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>38</v>
       </c>
@@ -12187,7 +12433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="504" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>38</v>
       </c>
@@ -12210,7 +12456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="505" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>38</v>
       </c>
@@ -12233,7 +12479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>38</v>
       </c>
@@ -12256,7 +12502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="507" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>38</v>
       </c>
@@ -12279,7 +12525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="508" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>38</v>
       </c>
@@ -12302,7 +12548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="509" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>38</v>
       </c>
@@ -12325,7 +12571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="510" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>38</v>
       </c>
@@ -12348,7 +12594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="511" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>38</v>
       </c>
@@ -12371,7 +12617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>38</v>
       </c>
@@ -12394,7 +12640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="513" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>38</v>
       </c>
@@ -12417,7 +12663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="514" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>38</v>
       </c>
@@ -12440,7 +12686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="515" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>38</v>
       </c>
@@ -12463,7 +12709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="516" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>38</v>
       </c>
@@ -12486,7 +12732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>38</v>
       </c>
@@ -12509,7 +12755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>38</v>
       </c>
@@ -12532,7 +12778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="519" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>38</v>
       </c>
@@ -12555,7 +12801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="520" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>38</v>
       </c>
@@ -12578,7 +12824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="521" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>38</v>
       </c>
@@ -12601,7 +12847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="522" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>38</v>
       </c>
@@ -12624,7 +12870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="523" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>38</v>
       </c>
@@ -12647,7 +12893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="524" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>38</v>
       </c>
@@ -12670,7 +12916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="525" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>38</v>
       </c>
@@ -12693,7 +12939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="526" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>38</v>
       </c>
@@ -12716,7 +12962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="527" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>38</v>
       </c>
@@ -12739,7 +12985,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="528" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>38</v>
       </c>
@@ -12762,7 +13008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="529" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>38</v>
       </c>
@@ -12785,7 +13031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="530" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>38</v>
       </c>
@@ -12808,7 +13054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="531" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>38</v>
       </c>
@@ -12831,7 +13077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="532" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>38</v>
       </c>
@@ -12854,7 +13100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>38</v>
       </c>
@@ -12877,7 +13123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="534" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>38</v>
       </c>
@@ -12900,7 +13146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>38</v>
       </c>
@@ -12923,7 +13169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="536" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>38</v>
       </c>
@@ -12946,7 +13192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="537" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>38</v>
       </c>
@@ -12969,7 +13215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="538" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>38</v>
       </c>
@@ -12992,7 +13238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="539" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>38</v>
       </c>
@@ -13015,7 +13261,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="540" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>38</v>
       </c>
@@ -13038,7 +13284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="541" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>38</v>
       </c>
@@ -13061,7 +13307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="542" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>38</v>
       </c>
@@ -13084,7 +13330,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="543" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>38</v>
       </c>
@@ -13107,7 +13353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="544" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>38</v>
       </c>
@@ -13130,7 +13376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>38</v>
       </c>
@@ -13153,7 +13399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="546" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>38</v>
       </c>
@@ -13176,7 +13422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="547" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>38</v>
       </c>
@@ -13199,7 +13445,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="548" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>38</v>
       </c>
@@ -13222,7 +13468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="549" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>38</v>
       </c>
@@ -13245,7 +13491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="550" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>38</v>
       </c>
@@ -13268,7 +13514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="551" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>38</v>
       </c>
@@ -13291,7 +13537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="552" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>38</v>
       </c>
@@ -13314,7 +13560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="553" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>38</v>
       </c>
@@ -13337,7 +13583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="554" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>38</v>
       </c>
@@ -13360,7 +13606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="555" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>38</v>
       </c>
@@ -13383,7 +13629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="556" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>38</v>
       </c>
@@ -13406,7 +13652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="557" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>38</v>
       </c>
@@ -13429,7 +13675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="558" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>38</v>
       </c>
@@ -13452,7 +13698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="559" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>38</v>
       </c>
@@ -13475,7 +13721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="560" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>38</v>
       </c>
@@ -13498,7 +13744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="561" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>38</v>
       </c>
@@ -13521,7 +13767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="562" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>38</v>
       </c>
@@ -13544,7 +13790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="563" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>38</v>
       </c>
@@ -13567,7 +13813,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="564" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>38</v>
       </c>
@@ -13590,7 +13836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="565" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>38</v>
       </c>
@@ -13613,7 +13859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="566" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>38</v>
       </c>
@@ -13636,7 +13882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="567" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>38</v>
       </c>
@@ -13659,7 +13905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="568" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>38</v>
       </c>
@@ -13682,7 +13928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="569" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>38</v>
       </c>
@@ -13705,7 +13951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="570" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>38</v>
       </c>
@@ -13728,22 +13974,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B571" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C571" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="D571" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G571" xr:uid="{32B33DD9-85B5-4513-BB7E-6E5E9996F075}">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter val="????"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="C571" r:id="rId1" display="?@*" xr:uid="{9ABD7A02-0D6B-4304-966F-739A8C26F689}"/>
   </hyperlinks>
